--- a/concept.xlsx
+++ b/concept.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eruffaldi/Dropbox/repos/matranges/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="16">
   <si>
     <t>idx</t>
   </si>
@@ -53,21 +61,32 @@
   </si>
   <si>
     <t>inverse range (3)</t>
+  </si>
+  <si>
+    <t>as range index</t>
+  </si>
+  <si>
+    <t>as range label</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -75,11 +94,17 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -93,56 +118,352 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AC30"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="K38" sqref="K38"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="53" width="4.43"/>
+    <col min="1" max="53" width="4.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -163,126 +484,126 @@
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D2" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E2" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F2" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="G2" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H2" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="I2" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="J2" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="K2" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="L2" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="M2" s="2">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="N2" s="2">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="O2" s="2">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="P2" s="2">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="Q2" s="2">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="R2" s="2">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="S2" s="2">
-        <v>17.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D3" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E3" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F3" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G3" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="H3" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="I3" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J3" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="K3" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="L3" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="M3" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="N3" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="O3" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="P3" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="Q3" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="R3" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="S3" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="1" t="s">
         <v>3</v>
       </c>
@@ -293,15 +614,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C7" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E7" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>3</v>
@@ -313,190 +634,190 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D8" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E8" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H8" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="J8" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="N8" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="O8" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="P8" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="Q8" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="R8" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="S8" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="T8" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="U8" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="V8" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="W8" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="X8" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="Y8" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="Z8" s="1"/>
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
       <c r="AC8" s="1"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C9" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D9" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="E9" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="H9" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="I9" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="J9" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C10" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="D10" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="E10" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H10" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="I10" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="J10" s="2">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="E11" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="H11" s="2">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="I11" s="2">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="J11" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M11" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="N11" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="O11" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="P11" s="2" t="s">
         <v>6</v>
       </c>
       <c r="Q11" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="R11" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="S11" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="T11" s="2" t="s">
         <v>6</v>
       </c>
       <c r="U11" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="V11" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="W11" s="2" t="s">
         <v>6</v>
       </c>
       <c r="X11" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="Y11" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="Z11" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AA11" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AB11" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C12" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D12" s="2">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="E12" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>7</v>
@@ -507,237 +828,334 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C13" s="2">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D13" s="2">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="E13" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C14" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
-    </row>
-    <row r="15">
+      <c r="M14" s="2">
+        <v>1</v>
+      </c>
+      <c r="N14" s="2">
+        <v>1</v>
+      </c>
+      <c r="O14" s="2">
+        <v>1</v>
+      </c>
+      <c r="P14" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>2</v>
+      </c>
+      <c r="R14" s="2">
+        <v>2</v>
+      </c>
+      <c r="S14" s="2">
+        <v>2</v>
+      </c>
+      <c r="T14" s="2">
+        <v>0</v>
+      </c>
+      <c r="U14" s="2">
+        <v>3</v>
+      </c>
+      <c r="V14" s="2">
+        <v>3</v>
+      </c>
+      <c r="W14" s="2">
+        <v>0</v>
+      </c>
+      <c r="X14" s="2">
+        <v>4</v>
+      </c>
+      <c r="Y14" s="2">
+        <v>4</v>
+      </c>
+      <c r="Z14" s="2">
+        <v>4</v>
+      </c>
+      <c r="AA14" s="2">
+        <v>4</v>
+      </c>
+      <c r="AB14" s="2">
+        <v>4</v>
+      </c>
+      <c r="AC14" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
-    </row>
-    <row r="16">
+      <c r="M15" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
     </row>
-    <row r="18">
-      <c r="B18" s="1" t="s">
+    <row r="17" spans="2:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M17" s="2">
+        <v>2</v>
+      </c>
+      <c r="N17" s="2">
+        <v>2</v>
+      </c>
+      <c r="O17" s="2">
+        <v>2</v>
+      </c>
+      <c r="P17" s="2">
         <v>0</v>
       </c>
-      <c r="C18" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D18" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="E18" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="F18" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="G18" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="H18" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="I18" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="J18" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="K18" s="2">
-        <v>9.0</v>
-      </c>
-      <c r="L18" s="2">
-        <v>10.0</v>
-      </c>
-      <c r="M18" s="2">
-        <v>11.0</v>
-      </c>
-      <c r="N18" s="2">
-        <v>12.0</v>
-      </c>
-      <c r="O18" s="2">
-        <v>13.0</v>
-      </c>
-      <c r="P18" s="2">
-        <v>14.0</v>
-      </c>
-      <c r="Q18" s="2">
-        <v>15.0</v>
-      </c>
-      <c r="R18" s="2">
-        <v>16.0</v>
-      </c>
-      <c r="S18" s="2">
-        <v>17.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="B19" s="1" t="s">
+      <c r="Q17" s="2">
+        <v>4</v>
+      </c>
+      <c r="R17" s="2">
+        <v>4</v>
+      </c>
+      <c r="S17" s="2">
+        <v>4</v>
+      </c>
+      <c r="T17" s="2">
+        <v>0</v>
+      </c>
+      <c r="U17" s="2">
+        <v>7</v>
+      </c>
+      <c r="V17" s="2">
+        <v>7</v>
+      </c>
+      <c r="W17" s="2">
+        <v>0</v>
+      </c>
+      <c r="X17" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y17" s="2">
+        <v>2</v>
+      </c>
+      <c r="Z17" s="2">
+        <v>2</v>
+      </c>
+      <c r="AA17" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB17" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC17" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M18" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="2:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="2">
         <v>1</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I19" s="6" t="s">
+      <c r="D22" s="2">
+        <v>2</v>
+      </c>
+      <c r="E22" s="2">
+        <v>3</v>
+      </c>
+      <c r="F22" s="2">
+        <v>4</v>
+      </c>
+      <c r="G22" s="2">
+        <v>5</v>
+      </c>
+      <c r="H22" s="2">
+        <v>6</v>
+      </c>
+      <c r="I22" s="2">
+        <v>7</v>
+      </c>
+      <c r="J22" s="2">
+        <v>8</v>
+      </c>
+      <c r="K22" s="2">
+        <v>9</v>
+      </c>
+      <c r="L22" s="2">
+        <v>10</v>
+      </c>
+      <c r="M22" s="2">
         <v>11</v>
       </c>
-      <c r="J19" s="6" t="s">
+      <c r="N22" s="2">
+        <v>12</v>
+      </c>
+      <c r="O22" s="2">
+        <v>13</v>
+      </c>
+      <c r="P22" s="2">
+        <v>14</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>15</v>
+      </c>
+      <c r="R22" s="2">
+        <v>16</v>
+      </c>
+      <c r="S22" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="2:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I23" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K19" s="6" t="s">
+      <c r="J23" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="L19" s="6" t="s">
+      <c r="K23" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M19" s="6" t="s">
+      <c r="L23" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="N19" s="6" t="s">
+      <c r="M23" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="O19" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="P19" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q19" s="6" t="s">
+      <c r="N23" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="R19" s="6" t="s">
+      <c r="O23" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="P23" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q23" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="S19" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="C20" s="3" t="s">
+      <c r="R23" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="S23" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="2:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C24" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="22">
-      <c r="C22" s="1" t="s">
+    <row r="26" spans="2:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C26" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" s="1"/>
-      <c r="I22" s="1" t="s">
+      <c r="D26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="I26" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J22" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K22" s="1"/>
-    </row>
-    <row r="23">
-      <c r="C23" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="D23" s="2">
-        <v>12.0</v>
-      </c>
-      <c r="E23" s="1"/>
-      <c r="I23" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="J23" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="K23" s="1"/>
-    </row>
-    <row r="24">
-      <c r="C24" s="2">
-        <v>15.0</v>
-      </c>
-      <c r="D24" s="2">
-        <v>16.0</v>
-      </c>
-      <c r="E24" s="1"/>
-      <c r="I24" s="2">
-        <v>13.0</v>
-      </c>
-      <c r="J24" s="2">
-        <v>14.0</v>
-      </c>
-      <c r="K24" s="1"/>
-    </row>
-    <row r="25">
-      <c r="C25" s="4" t="s">
+      <c r="J26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K26" s="1"/>
+    </row>
+    <row r="27" spans="2:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C27" s="2">
+        <v>7</v>
+      </c>
+      <c r="D27" s="2">
+        <v>12</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="I27" s="2">
+        <v>1</v>
+      </c>
+      <c r="J27" s="2">
+        <v>6</v>
+      </c>
+      <c r="K27" s="1"/>
+    </row>
+    <row r="28" spans="2:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C28" s="2">
+        <v>15</v>
+      </c>
+      <c r="D28" s="2">
+        <v>16</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="I28" s="2">
+        <v>13</v>
+      </c>
+      <c r="J28" s="2">
+        <v>14</v>
+      </c>
+      <c r="K28" s="1"/>
+    </row>
+    <row r="29" spans="2:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C29" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="I25" s="2">
-        <v>17.0</v>
-      </c>
-      <c r="J25" s="2">
-        <v>17.0</v>
-      </c>
-      <c r="K25" s="4"/>
-    </row>
-    <row r="26">
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="I26" s="4" t="s">
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="I29" s="2">
+        <v>17</v>
+      </c>
+      <c r="J29" s="2">
+        <v>17</v>
+      </c>
+      <c r="K29" s="4"/>
+    </row>
+    <row r="30" spans="2:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="I30" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J26" s="4"/>
-    </row>
-    <row r="27">
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-    </row>
-    <row r="28">
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-    </row>
-    <row r="29">
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
+      <c r="J30" s="4"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/concept.xlsx
+++ b/concept.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="17">
   <si>
     <t>idx</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>as range label</t>
+  </si>
+  <si>
+    <t>input logical raise (1)</t>
   </si>
 </sst>
 </file>
@@ -124,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -137,6 +140,11 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -452,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC30"/>
+  <dimension ref="A1:AC42"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+      <selection activeCell="AB27" sqref="AB27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1155,6 +1163,193 @@
       </c>
       <c r="J30" s="4"/>
     </row>
+    <row r="33" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="2">
+        <v>1</v>
+      </c>
+      <c r="D33" s="2">
+        <v>2</v>
+      </c>
+      <c r="E33" s="2">
+        <v>3</v>
+      </c>
+      <c r="F33" s="2">
+        <v>4</v>
+      </c>
+      <c r="G33" s="2">
+        <v>5</v>
+      </c>
+      <c r="H33" s="2">
+        <v>6</v>
+      </c>
+      <c r="I33" s="2">
+        <v>7</v>
+      </c>
+      <c r="J33" s="2">
+        <v>8</v>
+      </c>
+      <c r="K33" s="2">
+        <v>9</v>
+      </c>
+      <c r="L33" s="2">
+        <v>10</v>
+      </c>
+      <c r="M33" s="2">
+        <v>11</v>
+      </c>
+      <c r="N33" s="2">
+        <v>12</v>
+      </c>
+      <c r="O33" s="2">
+        <v>13</v>
+      </c>
+      <c r="P33" s="2">
+        <v>14</v>
+      </c>
+      <c r="Q33" s="2">
+        <v>15</v>
+      </c>
+      <c r="R33" s="2">
+        <v>16</v>
+      </c>
+      <c r="S33" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J34" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K34" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L34" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M34" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N34" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="O34" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="P34" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q34" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="R34" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="S34" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C35" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E37" s="1"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="8"/>
+    </row>
+    <row r="38" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C38" s="2">
+        <v>1</v>
+      </c>
+      <c r="D38" s="2">
+        <v>3</v>
+      </c>
+      <c r="E38" s="1"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="8"/>
+    </row>
+    <row r="39" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C39" s="2">
+        <v>4</v>
+      </c>
+      <c r="D39" s="2">
+        <v>7</v>
+      </c>
+      <c r="E39" s="1"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="8"/>
+    </row>
+    <row r="40" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C40" s="2">
+        <v>8</v>
+      </c>
+      <c r="D40" s="2">
+        <v>11</v>
+      </c>
+      <c r="E40" s="4"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="8"/>
+    </row>
+    <row r="41" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C41" s="2">
+        <v>12</v>
+      </c>
+      <c r="D41" s="2">
+        <v>16</v>
+      </c>
+      <c r="E41" s="1"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="8"/>
+    </row>
+    <row r="42" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C42" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
